--- a/form-files/adaptiveIMCI_clinician/clinician.xlsx
+++ b/form-files/adaptiveIMCI_clinician/clinician.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett\workspace\cse481k\AdaptiveODK\form-files\adaptiveIMCI_clinician\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="prompt_types" sheetId="5" r:id="rId2"/>
-    <sheet name="calculates" sheetId="2" r:id="rId3"/>
-    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="calculates" sheetId="6" r:id="rId3"/>
+    <sheet name="choices" sheetId="8" r:id="rId4"/>
     <sheet name="settings" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="512">
   <si>
     <t>type</t>
   </si>
@@ -304,19 +299,10 @@
     <t>general_danger_level</t>
   </si>
   <si>
-    <t>calculates.has_cough()? "Present" : "Not present"</t>
-  </si>
-  <si>
     <t>diarrhea_danger_level</t>
   </si>
   <si>
-    <t>calculates.has_diarrhea()? "Present" : "Not present"</t>
-  </si>
-  <si>
     <t>ear_danger_level</t>
-  </si>
-  <si>
-    <t>calculates.has_fever()? "Present" : "Not present"</t>
   </si>
   <si>
     <t>malaria_measles_danger_level</t>
@@ -410,24 +396,6 @@
   </si>
   <si>
     <t>{{calculates.danger_class_pneumonia()}}</t>
-  </si>
-  <si>
-    <t>calculates.general_danger_level() == "Present" ? "danger" : "good"</t>
-  </si>
-  <si>
-    <t>calculates.pneumonia_danger_level() == "Present" ? "danger" : "good"</t>
-  </si>
-  <si>
-    <t>calculates.diarrhea_danger_level() == "Present" ? "danger" : "good"</t>
-  </si>
-  <si>
-    <t>calculates.malaria_measles_danger_level() == "Present" ? "danger" : "good"</t>
-  </si>
-  <si>
-    <t>calculates.ear_danger_level() == "Present" ? "danger" : "good"</t>
-  </si>
-  <si>
-    <t>!calculates.can_drink() || calculates.is_vomiting() ||calculates.has_convulsions() ? "Present" : "Not present"</t>
   </si>
   <si>
     <t>cough</t>
@@ -616,9 +584,6 @@
     <t>danger_class_malnut_anemia</t>
   </si>
   <si>
-    <t>"TODO"</t>
-  </si>
-  <si>
     <t>malnut_anemia_danger_level</t>
   </si>
   <si>
@@ -784,12 +749,6 @@
     <t>Give Quinine for severe Malaria (first dose)</t>
   </si>
   <si>
-    <t>Give first dose of antibiotic</t>
-  </si>
-  <si>
-    <t>Treat child to preven low blood sugar</t>
-  </si>
-  <si>
     <t>Give one dose of paracetamol in clinic for high fever (38.5 C or above)</t>
   </si>
   <si>
@@ -829,9 +788,6 @@
     <t>selected(data('malaria_risk'), 'yes')</t>
   </si>
   <si>
-    <t>calculates .has_ear_problem() || calculates.has_ear_pain() || calculates.has_ear_discharge()? "Present" : "Not present"</t>
-  </si>
-  <si>
     <t>selected(data('fever_persistent', 'yes'))</t>
   </si>
   <si>
@@ -868,25 +824,16 @@
     <t>selected(data('measles_eyeclouding'), 'yes')</t>
   </si>
   <si>
-    <t>calculates.had_measles() &amp;&amp; (calculates.general_danger_level() == "Present" || calculates.has_eyeclouding() || calculates.has_ulcers())? "danger" : "good"</t>
-  </si>
-  <si>
     <t>calculates.had_measles() &amp;&amp; calculates.high_danger_measles() == "good" &amp;&amp; calculates.has_eyedischarge() ? "danger" : "good"</t>
   </si>
   <si>
     <t>calculates.had_measles() &amp;&amp; calculates.high_danger_measles() == "good" &amp;&amp; calculates.med_danger_measles() == "good" ? "danger" : "good"</t>
   </si>
   <si>
-    <t>(calculates.has_fever() &amp;&amp; (calculates.has_stiffneck() || calculates.general_danger_level() == "Present") ) ? "danger" : "good"</t>
-  </si>
-  <si>
     <t>calculates.high_danger_malaria() == "good" &amp;&amp; (calculates.has_fever() &amp;&amp; calculates.malaria_risk()) || (calculates.has_fever() &amp;&amp; !calculates.malaria_risk() &amp;&amp; !calculates.has_rash_runnynose_redeyes() &amp;&amp; !calculates.had_measles()) ? "danger" : "good"</t>
   </si>
   <si>
     <t>malaria_high</t>
-  </si>
-  <si>
-    <t>malaria_low</t>
   </si>
   <si>
     <t>measles_high</t>
@@ -1039,9 +986,6 @@
     <t>(calculates.has_ear_problem() &amp;&amp; calculates.high_danger_ear() == "good" &amp;&amp; (calculates.has_ear_discharge() || calculates.has_ear_pain())) ? "danger" : "good"</t>
   </si>
   <si>
-    <t>pneumonia_high</t>
-  </si>
-  <si>
     <t>pneumonia_med</t>
   </si>
   <si>
@@ -1066,13 +1010,7 @@
     <t>dysentry</t>
   </si>
   <si>
-    <t>ear_high</t>
-  </si>
-  <si>
     <t>ear_med</t>
-  </si>
-  <si>
-    <t>{{calculates.high_danger_pneumonia()}}</t>
   </si>
   <si>
     <t>{{calculates.med_danger_pneumonia()}}</t>
@@ -1103,9 +1041,6 @@
   </si>
   <si>
     <t>calculates.has_cough() &amp;&amp; calculates.high_danger_pneumonia() == "good" &amp;&amp; calculates.has_fast_breathing() ? "danger" : "good"</t>
-  </si>
-  <si>
-    <t>calculates.has_cough() &amp;&amp; (calculates.general_danger_level() == "Present" || calculates.has_indrawing_stridor_wheezing()) ? "danger" : "good"</t>
   </si>
   <si>
     <t>selected(data('indraw_stridor_wheezing'), 'yes')</t>
@@ -1270,12 +1205,6 @@
     <t>{{calculates.med_danger_anemia()}}</t>
   </si>
   <si>
-    <t>Give first dose of appropriate antibiotic</t>
-  </si>
-  <si>
-    <t>due to severe pneumonia</t>
-  </si>
-  <si>
     <t>Give oral antibiotic for 3 days</t>
   </si>
   <si>
@@ -1333,13 +1262,7 @@
     <t>ear_med2</t>
   </si>
   <si>
-    <t>ear_med3</t>
-  </si>
-  <si>
     <t>Dry the ear by wicking</t>
-  </si>
-  <si>
-    <t>Follow up in 5 days</t>
   </si>
   <si>
     <t>Follow up in 5 days if not improving</t>
@@ -1366,9 +1289,6 @@
     <t>due to very severe febrile disease</t>
   </si>
   <si>
-    <t>due to fever</t>
-  </si>
-  <si>
     <t>malaria_med3</t>
   </si>
   <si>
@@ -1376,9 +1296,6 @@
   </si>
   <si>
     <t>malaria_low3</t>
-  </si>
-  <si>
-    <t>measles_high2</t>
   </si>
   <si>
     <t>measles_high3</t>
@@ -1415,9 +1332,6 @@
   </si>
   <si>
     <t>severe_classification</t>
-  </si>
-  <si>
-    <t>calculates.general_danger_level() == "Present" || calculates.high_danger_malaria() == "danger" || calculates.high_danger_pneumonia() == "danger" || calculates.high_danger_diarrhea() == "danger" || calculates.high_danger_malaria() == "danger"|| calculates.high_danger_measles() == "danger" || calculates.high_danger_ear() == "danger" || calculates.high_danger_malnut() == "danger" || calculates.high_danger_anemia() == "danger" ? "danger" : "good"</t>
   </si>
   <si>
     <t>Give frequent sips of ORS</t>
@@ -1459,16 +1373,10 @@
     <t>Give fluid, zinc supplements, and food for some dehydration</t>
   </si>
   <si>
-    <t>dehydration_med3</t>
-  </si>
-  <si>
     <t>due to some dehydration</t>
   </si>
   <si>
     <t>Give fluid, zinc supplements, and food to treat diarrhea at home</t>
-  </si>
-  <si>
-    <t>dehydration_low3</t>
   </si>
   <si>
     <t>Treat dehydration before referral unless the child has another severe classification</t>
@@ -1487,9 +1395,6 @@
   </si>
   <si>
     <t>diarrhea_med2</t>
-  </si>
-  <si>
-    <t>diarrhea_med3</t>
   </si>
   <si>
     <t>Give ciprofloxacin for 3 days</t>
@@ -1534,16 +1439,10 @@
     <t>anemia_med5</t>
   </si>
   <si>
-    <t>{{calculates.severe_classification()}}</t>
-  </si>
-  <si>
     <t>{{calculates.med_danger_dehydration() }}</t>
   </si>
   <si>
     <t>{{calculates.med_danger_malaria() == "danger" || calculates.med_danger_pneumonia() == "danger" || calculates.low_danger_pneumonia() == "danger"  || calculates.med_danger_malaria() == "danger" || calculates.low_danger_malaria() == "danger" || calculates.med_danger_dehydration() == "danger" || calculates.low_danger_dehydration() == "danger" || calculates.med_danger_malnut() == "danger" || calculates.med_danger_anemia() == "danger" ? "danger" : "good"}}</t>
-  </si>
-  <si>
-    <t>calculates.general_danger_level() == "Present" || calculates.high_danger_malaria() == "danger" || calculates.high_danger_measles() == "danger" || calculates.high_danger_pneumonia() == "danger" || calculates.high_danger_diarrhea() == "danger" || calculates.high_danger_ear() =="danger" || calculates.high_danger_malnut() == "danger" || calculates.high_danger_anemia() == "danger" ? "danger" : "good"</t>
   </si>
   <si>
     <t>table_id</t>
@@ -1562,6 +1461,99 @@
   </si>
   <si>
     <t>adaptiveIMCI_clinician</t>
+  </si>
+  <si>
+    <t>calculates.has_cough() &amp;&amp; (calculates.general_danger_level() == "Danger" || calculates.has_indrawing_stridor_wheezing()) ? "danger" : "good"</t>
+  </si>
+  <si>
+    <t>calculates.had_measles() &amp;&amp; (calculates.general_danger_level() == "Danger" || calculates.has_eyeclouding() || calculates.has_ulcers())? "danger" : "good"</t>
+  </si>
+  <si>
+    <t>(calculates.has_fever() &amp;&amp; (calculates.has_stiffneck() || calculates.general_danger_level() == "Danger") ) ? "danger" : "good"</t>
+  </si>
+  <si>
+    <t>calculates.general_danger_level() == "Danger" || calculates.high_danger_malaria() == "danger" || calculates.high_danger_measles() == "danger" || calculates.high_danger_pneumonia() == "danger" || calculates.high_danger_diarrhea() == "danger" || calculates.high_danger_ear() =="danger" || calculates.high_danger_malnut() == "danger" || calculates.high_danger_anemia() == "danger" ? "danger" : "good"</t>
+  </si>
+  <si>
+    <t>(calculates.high_danger_malnut() == "danger" || calculates.high_danger_anemia() == "danger") ? "danger" : (calculates.med_danger_malnut() == "danger" || calculates.med_danger_anemia() == "danger") ? "warning" : "good"</t>
+  </si>
+  <si>
+    <t>calculates.high_danger_ear() == "danger" ? "danger" : calculates.med_danger_ear() == "danger" ? "warning" : "good"</t>
+  </si>
+  <si>
+    <t>(calculates.high_danger_malaria() == "danger" || calculates.high_danger_measles() == "danger") ? "danger" : (calculates.med_danger_malaria() == "danger" || calculates.med_danger_measles() == "danger") ? "warning" : "good"</t>
+  </si>
+  <si>
+    <t>calculates.high_danger_diarrhea() == "danger" ? "danger" : calculates.med_danger_diarrhea() == "danger" ? "warning" : "good"</t>
+  </si>
+  <si>
+    <t>calculates.high_danger_pneumonia() == "danger" ? "danger" : calculates.med_danger_pneumonia() == "danger" ? "warning" : "good"</t>
+  </si>
+  <si>
+    <t>calculates.general_danger_level() == "Danger" ? "danger" : "good"</t>
+  </si>
+  <si>
+    <t>calculates.high_danger_malnut() == "danger" || calculates.high_danger_anemia() == "danger" ? "Danger" : calculates.med_danger_malnut() == "danger" || calculates.med_danger_anemia() == "danger" ? "Present" : "Not present"</t>
+  </si>
+  <si>
+    <t>calculates .high_danger_ear() == "danger" ? "Danger" :  calculates.med_danger_ear() == "danger" ? "Present" : "Not present"</t>
+  </si>
+  <si>
+    <t>calculates.high_danger_malaria() == "danger" || calculates.high_danger_measles() == "danger" ? "Danger" :  calculates.med_danger_malaria() == "danger" || calculates.med_danger_measles() == "danger" ? "Present" : "Not present"</t>
+  </si>
+  <si>
+    <t>calculates.high_danger_diarrhea() == "danger" ? "Danger" :  calculates.med_danger_diarrhea() == "danger" ? "Present" : "Not present"</t>
+  </si>
+  <si>
+    <t>calculates.high_danger_pneumonia() == "danger" ? "Danger" : calculates.med_danger_pneumonia() == "danger" ? "Present" : "Not present"</t>
+  </si>
+  <si>
+    <t>!calculates.can_drink() || calculates.is_vomiting() ||calculates.has_convulsions() ? "Danger" : "Not present"</t>
+  </si>
+  <si>
+    <t>calculates.general_danger_level() == "Danger" || calculates.high_danger_malaria() == "danger" || calculates.high_danger_pneumonia() == "danger" || calculates.high_danger_diarrhea() == "danger" || calculates.high_danger_malaria() == "danger"|| calculates.high_danger_measles() == "danger" || calculates.high_danger_ear() == "danger" || calculates.high_danger_malnut() == "danger" || calculates.high_danger_anemia() == "danger" ? "danger" : "good"</t>
+  </si>
+  <si>
+    <t>{{calculates.high_danger_malaria() == "danger" || calculates.high_danger_measles() == "danger" || calculates.high_danger_pneumonia() == "danger" || calculates.high_danger_ear() == "danger" ? "danger" : "good" }}</t>
+  </si>
+  <si>
+    <t>Treat child to prevent low blood sugar</t>
+  </si>
+  <si>
+    <t>{{calculates.high_danger_malaria() == "danger" || calculates.med_danger_malaria() == "danger" || calculates.low_danger_malaria() == "danger" ? "danger" : "good"}}</t>
+  </si>
+  <si>
+    <t>{{calculates.med_danger_pneumonia() == "danger" &amp;&amp; calculates.med_danger_ear() != "danger" ? "danger" : "good"}}</t>
+  </si>
+  <si>
+    <t>no_treat_now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of your child's ailments require immediate action. </t>
+  </si>
+  <si>
+    <t>{{calculates.danger_class_see_dr() != "danger" &amp;&amp; calculates.high_danger_malaria() != "danger" &amp;&amp; calculates.med_danger_malaria() != "danger" &amp;&amp; calculates.low_danger_malaria() != "danger" &amp;&amp; calculates.high_danger_measles() != "danger" &amp;&amp; calculates.med_danger_measles() != "danger" &amp;&amp; calculates.high_danger_pneumonia() != "danger" &amp;&amp; calculates.med_danger_pneumonia() != "danger" &amp;&amp; (calculates.high_danger_dehydration() != "danger" || calculates.severe_classification() != "good") &amp;&amp; (calculates.med_danger_dehydration() != "danger" || calculates.severe_classification() != "good") &amp;&amp; calculates.high_danger_diarrhea() != "danger" &amp;&amp; calculates.danger_dysentry() != "danger" &amp;&amp; calculates.high_danger_ear() != "danger" &amp;&amp; calculates.med_danger_ear() != "danger" &amp;&amp; calculates.high_danger_malnut() != "danger" ? "danger" : "good"}}</t>
+  </si>
+  <si>
+    <t>{{calculates.severe_classification() == "danger" || calculates.high_danger_diarrhea() == "danger" ? "danger" : "good"}}</t>
+  </si>
+  <si>
+    <t>{{!(calculates.severe_classification() == "danger" || calculates.high_danger_diarrhea() == "danger") &amp;&amp; (calculates.med_danger_pneumonia() == "danger" || calculates.danger_dysentry()== "danger" || calculates.med_danger_measles() == "danger")  ? "danger" : "good"}}</t>
+  </si>
+  <si>
+    <t>{{(calculates.low_danger_pneumonia() == "danger" || calculates.med_danger_dehydration() == "danger" || calculates.med_danger_ear() == "danger" || calculates.low_danger_dehydration() == "danger" || calculates.med_danger_diarrhea() == "danger") &amp;&amp; !(calculates.severe_classification() == "danger" || calculates.high_danger_diarrhea() == "danger" || calculates.med_danger_pneumonia() == "danger" || calculates.danger_dysentry()== "danger" || calculates.med_danger_measles() == "danger"  || calculates.med_danger_malaria() == "danger" || calculates.low_danger_malaria() == "danger") ? "danger" : "good"}}</t>
+  </si>
+  <si>
+    <t>{{calculates.med_danger_malaria() == "danger" &amp;&amp; !(calculates.severe_classification() == "danger" || calculates.high_danger_diarrhea() == "danger" || calculates.med_danger_pneumonia() == "danger" || calculates.danger_dysentry()== "danger" || calculates.med_danger_measles() == "danger") ? "danger" : "good"}}</t>
+  </si>
+  <si>
+    <t>{{calculates.low_danger_malaria() &amp;&amp; !( calculates.severe_classification() == "danger" || calculates.high_danger_diarrhea() == "danger" || calculates.med_danger_pneumonia() == "danger" || calculates.danger_dysentry()== "danger" || calculates.med_danger_measles() == "danger"  ) ? "danger" : "good"}}</t>
+  </si>
+  <si>
+    <t>{{calculates.med_danger_malnut() == "danger" &amp;&amp; !(calculates.med_danger_anemia() == "danger" || calculates.low_danger_pneumonia() == "danger" || calculates.med_danger_dehydration() == "danger" || calculates.med_danger_ear() == "danger" || calculates.low_danger_dehydration() == "danger" || calculates.med_danger_diarrhea() == "danger" ||calculates.severe_classification() == "danger" || calculates.high_danger_diarrhea() == "danger" || calculates.med_danger_pneumonia() == "danger" || calculates.danger_dysentry()== "danger" || calculates.med_danger_measles() == "danger"  || calculates.med_danger_malaria() == "danger" || calculates.low_danger_malaria() == "danger") ? "danger" : "good"}}</t>
+  </si>
+  <si>
+    <t>{{calculates.med_danger_anemia() == "danger" &amp;&amp; !(calculates.low_danger_pneumonia() == "danger" || calculates.med_danger_dehydration() == "danger" || calculates.med_danger_ear() == "danger" || calculates.low_danger_dehydration() == "danger" || calculates.med_danger_diarrhea() == "danger" || calculates.severe_classification() == "danger" || calculates.high_danger_diarrhea() == "danger"|| calculates.med_danger_pneumonia() == "danger" || calculates.danger_dysentry()== "danger" || calculates.med_danger_measles() == "danger"  || calculates.med_danger_malaria() == "danger" || calculates.low_danger_malaria() == "danger") ? "danger" : "good"}}</t>
   </si>
 </sst>
 </file>
@@ -1993,7 +1985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2003,37 +1995,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="41" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
-    <col min="8" max="8" width="20.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="3" customWidth="1"/>
-    <col min="10" max="12" width="8.88671875" style="3"/>
-    <col min="13" max="13" width="17.33203125" style="3" customWidth="1"/>
-    <col min="14" max="15" width="8.88671875" style="3"/>
-    <col min="16" max="16" width="17.44140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="19.88671875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="21.5546875" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="8.85546875" style="3"/>
+    <col min="8" max="8" width="20.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="8.85546875" style="3"/>
+    <col min="13" max="13" width="17.28515625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="8.85546875" style="3"/>
+    <col min="16" max="16" width="17.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -2045,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>14</v>
@@ -2084,12 +2076,12 @@
         <v>13</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -2109,12 +2101,12 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2133,7 +2125,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -2161,7 +2153,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -2187,7 +2179,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -2197,7 +2189,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2213,7 +2205,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -2226,7 +2218,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2241,7 +2233,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
@@ -2263,9 +2255,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2285,12 +2277,12 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2309,7 +2301,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -2322,7 +2314,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G11" s="4" t="b">
         <v>1</v>
@@ -2339,7 +2331,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2352,7 +2344,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G12" s="4" t="b">
         <v>1</v>
@@ -2369,7 +2361,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -2382,7 +2374,7 @@
         <v>47</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G13" s="4" t="b">
         <v>1</v>
@@ -2399,7 +2391,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
@@ -2421,7 +2413,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -2445,19 +2437,19 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G16" s="4" t="b">
         <v>1</v>
@@ -2474,7 +2466,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -2487,7 +2479,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G17" s="4" t="b">
         <v>1</v>
@@ -2504,7 +2496,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -2517,7 +2509,7 @@
         <v>58</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G18" s="4" t="b">
         <v>1</v>
@@ -2534,7 +2526,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -2547,7 +2539,7 @@
         <v>34</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G19" s="4" t="b">
         <v>1</v>
@@ -2564,7 +2556,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
@@ -2586,9 +2578,9 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2608,15 +2600,15 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="11"/>
@@ -2634,20 +2626,20 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="15"/>
       <c r="D23" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2662,17 +2654,17 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="15"/>
       <c r="D24" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2688,20 +2680,20 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="15"/>
       <c r="D25" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2716,7 +2708,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
@@ -2738,9 +2730,9 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B27" s="4"/>
       <c r="D27" s="4"/>
@@ -2759,15 +2751,15 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2785,20 +2777,20 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="15"/>
       <c r="D29" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -2813,20 +2805,20 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -2841,20 +2833,20 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -2869,20 +2861,20 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2897,20 +2889,20 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2925,20 +2917,20 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2953,20 +2945,20 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2981,20 +2973,20 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3009,7 +3001,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
@@ -3031,9 +3023,9 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B38" s="4"/>
       <c r="D38" s="4"/>
@@ -3052,15 +3044,15 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3078,20 +3070,20 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3106,20 +3098,20 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="15"/>
       <c r="D41" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -3134,20 +3126,20 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="15"/>
       <c r="D42" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3162,20 +3154,20 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -3190,20 +3182,20 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3218,20 +3210,20 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3246,7 +3238,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -3268,15 +3260,15 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -3294,20 +3286,20 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -3322,20 +3314,20 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3350,20 +3342,20 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3378,7 +3370,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
@@ -3400,9 +3392,9 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3422,12 +3414,12 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -3445,7 +3437,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>24</v>
       </c>
@@ -3458,7 +3450,7 @@
         <v>60</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -3473,7 +3465,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
@@ -3486,7 +3478,7 @@
         <v>62</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -3501,20 +3493,20 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -3529,7 +3521,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>24</v>
       </c>
@@ -3542,7 +3534,7 @@
         <v>64</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3557,7 +3549,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>48</v>
       </c>
@@ -3579,9 +3571,9 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3601,12 +3593,12 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -3624,20 +3616,20 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -3652,20 +3644,20 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -3680,20 +3672,20 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -3708,20 +3700,20 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3736,22 +3728,22 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -3766,7 +3758,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>48</v>
       </c>
@@ -3788,12 +3780,12 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
@@ -3816,16 +3808,16 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -3842,17 +3834,17 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -3868,17 +3860,17 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -3894,14 +3886,14 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="4"/>
@@ -3918,20 +3910,20 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -3947,14 +3939,14 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="4"/>
@@ -3971,10 +3963,10 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>48</v>
       </c>
@@ -3996,28 +3988,28 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="17"/>
@@ -4038,11 +4030,11 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4063,18 +4055,18 @@
   <dimension ref="A1:XFD111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.44140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="97.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -4082,8 +4074,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -4091,7 +4083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -4099,15 +4091,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -4115,7 +4107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -4123,7 +4115,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -4131,7 +4123,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -4139,7 +4131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -4147,7 +4139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -4155,7 +4147,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -4163,7 +4155,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -4171,148 +4163,148 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>361</v>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -20697,12 +20689,12 @@
       <c r="XFC36" s="4"/>
       <c r="XFD36" s="4"/>
     </row>
-    <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -37087,12 +37079,12 @@
       <c r="XFC37" s="4"/>
       <c r="XFD37" s="4"/>
     </row>
-    <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -53477,7 +53469,7 @@
       <c r="XFC38" s="4"/>
       <c r="XFD38" s="4"/>
     </row>
-    <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -53485,7 +53477,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
@@ -53493,7 +53485,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -53501,444 +53493,444 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>496</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>93</v>
+      <c r="B63" s="1" t="s">
+        <v>486</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>95</v>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>97</v>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>197</v>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>129</v>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>130</v>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>131</v>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>132</v>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>133</v>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>197</v>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>506</v>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>349</v>
+      </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="B103" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>372</v>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>281</v>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>282</v>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>283</v>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>307</v>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -53948,26 +53940,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
-    <col min="6" max="6" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.44140625" customWidth="1"/>
-    <col min="8" max="8" width="44.88671875" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.42578125" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -53978,28 +53970,28 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -54016,7 +54008,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -54033,155 +54025,155 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -54190,1088 +54182,919 @@
       <c r="F10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="J13" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="J14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="J15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="J16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="J17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="J19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="J20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="J26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="J27" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="J28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="J29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="J13" t="s">
-        <v>250</v>
+      <c r="E30" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="J30" t="s">
+        <v>447</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="J14" t="s">
-        <v>250</v>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="J31" t="s">
+        <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="J15" t="s">
-        <v>250</v>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="J32" t="s">
+        <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="J16" t="s">
-        <v>250</v>
-      </c>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="J17" t="s">
-        <v>259</v>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="J34" t="s">
+        <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="J18" t="s">
-        <v>259</v>
-      </c>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="J19" t="s">
-        <v>291</v>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="J36" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="J21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="J22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="J23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="J25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="J27" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J28" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="J30" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="J31" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="J32" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="J33" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="J34" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="J35" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="J36" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>482</v>
+        <v>409</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>483</v>
+        <v>407</v>
       </c>
       <c r="J38" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="E39" s="5"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="J39" t="s">
+        <v>338</v>
+      </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="J40" t="s">
-        <v>355</v>
-      </c>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="E41" s="5"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="J41" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="J42" t="s">
-        <v>356</v>
-      </c>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>430</v>
+        <v>502</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>429</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="E43" s="5"/>
       <c r="J43" t="s">
-        <v>356</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="J44" t="s">
-        <v>357</v>
-      </c>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="E45" s="5"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J45" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>409</v>
+        <v>137</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>492</v>
+        <v>245</v>
       </c>
       <c r="J46" t="s">
-        <v>412</v>
+        <v>505</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="E47" s="5"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J47" t="s">
+        <v>474</v>
+      </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J48" t="s">
-        <v>117</v>
-      </c>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>146</v>
+        <v>322</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>257</v>
+        <v>399</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="J49" t="s">
-        <v>503</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>261</v>
+        <v>396</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>260</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="E50" s="5"/>
       <c r="J50" t="s">
-        <v>505</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="J51" t="s">
+        <v>331</v>
+      </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>245</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="E52" s="5"/>
       <c r="J52" t="s">
-        <v>350</v>
+        <v>506</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="E53" s="5"/>
       <c r="J53" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="J54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="J55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="J56" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="J58" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="J59" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J61" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J62" t="s">
         <v>247</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="J54" t="s">
-        <v>350</v>
-      </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C55" s="5" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="J55" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="E56" s="5"/>
-      <c r="J56" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="J57" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="J58" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="J59" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="J61" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="J62" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>436</v>
-      </c>
       <c r="C63" s="5" t="s">
-        <v>438</v>
+        <v>250</v>
       </c>
       <c r="E63" s="5"/>
       <c r="J63" t="s">
-        <v>357</v>
+        <v>509</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J65" t="s">
-        <v>259</v>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="J64" t="s">
+        <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>448</v>
+        <v>273</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>263</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="E66" s="5"/>
       <c r="J66" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>449</v>
+        <v>274</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>262</v>
+        <v>427</v>
       </c>
       <c r="E67" s="5"/>
       <c r="J67" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B68" s="5" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="J69" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="J68" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="E70" s="5"/>
       <c r="J70" t="s">
-        <v>293</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>456</v>
+        <v>326</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="E71" s="5"/>
       <c r="J71" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="J72" t="s">
-        <v>294</v>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="J73" t="s">
+        <v>335</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>247</v>
+        <v>455</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E74" s="5"/>
       <c r="J74" t="s">
-        <v>467</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="J75" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>478</v>
+        <v>390</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="E76" s="5"/>
       <c r="J76" t="s">
-        <v>504</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>343</v>
+        <v>465</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="E77" s="5"/>
       <c r="J77" t="s">
-        <v>352</v>
+        <v>510</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="J78" t="s">
-        <v>352</v>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="J79" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>484</v>
+        <v>237</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>344</v>
+        <v>470</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>257</v>
+        <v>467</v>
       </c>
       <c r="E80" s="5"/>
       <c r="J80" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>484</v>
+        <v>237</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="E81" s="5"/>
       <c r="J81" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>484</v>
+        <v>237</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="E82" s="5"/>
       <c r="J82" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="E83" s="5"/>
-      <c r="J83" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E85" s="5"/>
-      <c r="J85" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E87" s="5"/>
-      <c r="J87" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="E88" s="5"/>
-      <c r="J88" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E90" s="5"/>
-      <c r="J90" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="E91" s="5"/>
-      <c r="J91" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="E92" s="5"/>
-      <c r="J92" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E93" s="5"/>
-      <c r="J93" t="s">
-        <v>414</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -55283,19 +55106,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" style="5" customWidth="1"/>
     <col min="2" max="2" width="24" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="5"/>
+    <col min="3" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -55304,25 +55127,25 @@
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
@@ -55331,30 +55154,30 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>

--- a/form-files/adaptiveIMCI_clinician/clinician.xlsx
+++ b/form-files/adaptiveIMCI_clinician/clinician.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="514">
   <si>
     <t>type</t>
   </si>
@@ -1508,9 +1508,6 @@
     <t>calculates.high_danger_pneumonia() == "danger" ? "Danger" : calculates.med_danger_pneumonia() == "danger" ? "Present" : "Not present"</t>
   </si>
   <si>
-    <t>!calculates.can_drink() || calculates.is_vomiting() ||calculates.has_convulsions() ? "Danger" : "Not present"</t>
-  </si>
-  <si>
     <t>calculates.general_danger_level() == "Danger" || calculates.high_danger_malaria() == "danger" || calculates.high_danger_pneumonia() == "danger" || calculates.high_danger_diarrhea() == "danger" || calculates.high_danger_malaria() == "danger"|| calculates.high_danger_measles() == "danger" || calculates.high_danger_ear() == "danger" || calculates.high_danger_malnut() == "danger" || calculates.high_danger_anemia() == "danger" ? "danger" : "good"</t>
   </si>
   <si>
@@ -1554,6 +1551,15 @@
   </si>
   <si>
     <t>{{calculates.med_danger_anemia() == "danger" &amp;&amp; !(calculates.low_danger_pneumonia() == "danger" || calculates.med_danger_dehydration() == "danger" || calculates.med_danger_ear() == "danger" || calculates.low_danger_dehydration() == "danger" || calculates.med_danger_diarrhea() == "danger" || calculates.severe_classification() == "danger" || calculates.high_danger_diarrhea() == "danger"|| calculates.med_danger_pneumonia() == "danger" || calculates.danger_dysentry()== "danger" || calculates.med_danger_measles() == "danger"  || calculates.med_danger_malaria() == "danger" || calculates.low_danger_malaria() == "danger") ? "danger" : "good"}}</t>
+  </si>
+  <si>
+    <t>cannot_drink</t>
+  </si>
+  <si>
+    <t>selected(data('drink'),'no')</t>
+  </si>
+  <si>
+    <t>calculates.cannot_drink() || calculates.is_vomiting() ||calculates.has_convulsions() ? "Danger" : "Not present"</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1991,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1995,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -2805,7 +2811,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -4054,9 +4060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4105,6 +4111,14 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -53546,7 +53560,7 @@
         <v>437</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -53554,7 +53568,7 @@
         <v>92</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -53935,6 +53949,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -54236,7 +54251,7 @@
         <v>422</v>
       </c>
       <c r="J14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -54247,7 +54262,7 @@
         <v>417</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>422</v>
@@ -54270,7 +54285,7 @@
         <v>422</v>
       </c>
       <c r="J16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -54384,7 +54399,7 @@
         <v>235</v>
       </c>
       <c r="J24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -54632,14 +54647,14 @@
         <v>230</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="E43" s="5"/>
       <c r="J43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -54673,7 +54688,7 @@
         <v>245</v>
       </c>
       <c r="J46" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -54754,7 +54769,7 @@
       </c>
       <c r="E52" s="5"/>
       <c r="J52" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -54811,7 +54826,7 @@
         <v>415</v>
       </c>
       <c r="J56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -54855,7 +54870,7 @@
         <v>250</v>
       </c>
       <c r="J61" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -54884,7 +54899,7 @@
       </c>
       <c r="E63" s="5"/>
       <c r="J63" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -55034,7 +55049,7 @@
       </c>
       <c r="E77" s="5"/>
       <c r="J77" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -55094,7 +55109,7 @@
       </c>
       <c r="E82" s="5"/>
       <c r="J82" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/form-files/adaptiveIMCI_clinician/clinician.xlsx
+++ b/form-files/adaptiveIMCI_clinician/clinician.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett\workspace\cse481k\AdaptiveODK\form-files\adaptiveIMCI_clinician\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20730" windowHeight="9450" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20736" windowHeight="9456"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="531">
   <si>
     <t>type</t>
   </si>
@@ -138,9 +143,6 @@
   </si>
   <si>
     <t>What is the child's name?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text </t>
   </si>
   <si>
     <t>patient_age</t>
@@ -1594,6 +1596,27 @@
   <si>
     <t>11pt</t>
   </si>
+  <si>
+    <t>data('patient_age') &gt;= 0</t>
+  </si>
+  <si>
+    <t>data('patient_weight') &gt; 0</t>
+  </si>
+  <si>
+    <t>data('cough_days') &gt; 0</t>
+  </si>
+  <si>
+    <t>Value must be positive</t>
+  </si>
+  <si>
+    <t>data('breath_rate') &gt; 0</t>
+  </si>
+  <si>
+    <t>data('diarrhea_days') &gt; 0</t>
+  </si>
+  <si>
+    <t>data('fever_days') &gt; 0</t>
+  </si>
 </sst>
 </file>
 
@@ -2058,7 +2081,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2068,37 +2091,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="41" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3"/>
-    <col min="8" max="8" width="20.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="8.85546875" style="3"/>
-    <col min="13" max="13" width="17.28515625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="8.85546875" style="3"/>
-    <col min="16" max="16" width="17.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="20.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" style="3" customWidth="1"/>
+    <col min="12" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="17.33203125" style="3" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="3"/>
+    <col min="18" max="18" width="17.44140625" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -2110,7 +2133,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>14</v>
@@ -2122,39 +2145,39 @@
         <v>4</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="S1" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -2174,12 +2197,12 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2198,7 +2221,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -2211,9 +2234,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2226,27 +2247,28 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>40</v>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="J5" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="L5" s="13"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2254,25 +2276,28 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="J6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="L6" s="13"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -2280,20 +2305,20 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2308,9 +2333,9 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2330,9 +2355,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2352,9 +2377,9 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2374,12 +2399,12 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2398,24 +2423,22 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2428,24 +2451,22 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2458,24 +2479,22 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2488,9 +2507,9 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2510,9 +2529,9 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
@@ -2534,23 +2553,21 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2563,24 +2580,22 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -2593,24 +2608,22 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2623,7 +2636,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -2636,11 +2649,9 @@
         <v>34</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -2653,9 +2664,9 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2675,9 +2686,9 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2697,13 +2708,13 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2721,9 +2732,9 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2743,12 +2754,12 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="11"/>
@@ -2766,26 +2777,30 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="15"/>
       <c r="D26" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="J26" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2794,24 +2809,28 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="15"/>
       <c r="D27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="J27" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2820,20 +2839,20 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="15"/>
       <c r="D28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2848,9 +2867,9 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="15"/>
@@ -2870,9 +2889,9 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="15"/>
@@ -2892,13 +2911,13 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2916,9 +2935,9 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="4"/>
       <c r="D32" s="4"/>
@@ -2937,12 +2956,12 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2950,9 +2969,9 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="13"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2960,26 +2979,30 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="15"/>
       <c r="D34" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="J34" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2988,20 +3011,20 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="F35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3016,20 +3039,20 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3044,20 +3067,20 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3072,20 +3095,20 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -3100,20 +3123,20 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -3128,20 +3151,20 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3156,20 +3179,20 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -3184,9 +3207,9 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3206,9 +3229,9 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3228,13 +3251,13 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -3252,9 +3275,9 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="4"/>
       <c r="D45" s="4"/>
@@ -3273,12 +3296,12 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3286,9 +3309,9 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="13"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="L46" s="13"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -3296,27 +3319,27 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="13"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+      <c r="L47" s="13"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -3324,26 +3347,30 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="15"/>
       <c r="D48" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="J48" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -3352,20 +3379,20 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="15"/>
       <c r="D49" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="F49" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3380,20 +3407,20 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="F50" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3408,20 +3435,20 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -3436,20 +3463,20 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -3464,9 +3491,9 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -3486,15 +3513,15 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3502,9 +3529,9 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="13"/>
+      <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="L54" s="13"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -3512,20 +3539,20 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -3540,20 +3567,20 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -3568,20 +3595,20 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="F57" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3596,9 +3623,9 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3618,9 +3645,9 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3640,9 +3667,9 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3662,12 +3689,12 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -3675,9 +3702,9 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="13"/>
+      <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="L61" s="13"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -3685,20 +3712,20 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -3713,20 +3740,20 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="F63" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -3741,20 +3768,20 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3769,20 +3796,20 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="F65" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -3797,9 +3824,9 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3819,9 +3846,9 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3841,9 +3868,9 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3863,12 +3890,12 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3876,9 +3903,9 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="13"/>
+      <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="L69" s="13"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -3886,20 +3913,20 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="F70" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -3914,20 +3941,20 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -3942,20 +3969,20 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -3970,20 +3997,20 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="F73" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -3998,22 +4025,22 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F74" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -4028,9 +4055,9 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -4050,9 +4077,9 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -4072,12 +4099,12 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
@@ -4087,7 +4114,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -4100,16 +4127,16 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -4126,17 +4153,17 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -4152,17 +4179,17 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -4178,14 +4205,14 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="4"/>
@@ -4202,20 +4229,20 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -4231,14 +4258,14 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="4"/>
@@ -4255,12 +4282,12 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -4280,28 +4307,28 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="12"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="17"/>
@@ -4322,11 +4349,11 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="17.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4351,14 +4378,14 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="97.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -4366,245 +4393,245 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>494</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>81</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>82</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>83</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>84</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>85</v>
+      <c r="B33" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>86</v>
+    <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
+    <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -20989,12 +21016,12 @@
       <c r="XFC37" s="4"/>
       <c r="XFD37" s="4"/>
     </row>
-    <row r="38" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -37379,12 +37406,12 @@
       <c r="XFC38" s="4"/>
       <c r="XFD38" s="4"/>
     </row>
-    <row r="39" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -53769,468 +53796,468 @@
       <c r="XFC39" s="4"/>
       <c r="XFD39" s="4"/>
     </row>
-    <row r="41" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>88</v>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>89</v>
+    <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
-    <row r="44" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="46" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>339</v>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
-    <row r="47" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>340</v>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>341</v>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>342</v>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>379</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -54248,20 +54275,20 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
@@ -54272,28 +54299,28 @@
         <v>3</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -54305,7 +54332,7 @@
       </c>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -54316,970 +54343,970 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="J24" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>228</v>
+      <c r="J46" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>235</v>
+      <c r="C62" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>480</v>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>235</v>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>482</v>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>242</v>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>271</v>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>271</v>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>272</v>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>272</v>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>326</v>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>435</v>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>434</v>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>434</v>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>434</v>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>442</v>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="1" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J77" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -55291,19 +55318,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="5" customWidth="1"/>
     <col min="2" max="2" width="24" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="5"/>
+    <col min="3" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
@@ -55312,61 +55339,61 @@
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>471</v>
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="13">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>

--- a/form-files/adaptiveIMCI_clinician/clinician.xlsx
+++ b/form-files/adaptiveIMCI_clinician/clinician.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="534">
   <si>
     <t>type</t>
   </si>
@@ -1617,6 +1617,15 @@
   <si>
     <t>data('fever_days') &gt; 0</t>
   </si>
+  <si>
+    <t>label menu</t>
+  </si>
+  <si>
+    <t>goto menu</t>
+  </si>
+  <si>
+    <t>get_patient_name != null</t>
+  </si>
 </sst>
 </file>
 
@@ -1764,7 +1773,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
@@ -1803,6 +1812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2089,11 +2099,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S95"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,65 +2185,49 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="14"/>
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -2248,27 +2242,24 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>141</v>
+      <c r="A5" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="14"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="L5" s="13"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2280,19 +2271,19 @@
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="J6" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>527</v>
@@ -2306,26 +2297,27 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4"/>
+      <c r="A7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="L7" s="13"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -2335,13 +2327,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -2356,8 +2354,8 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>494</v>
+      <c r="A9" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2378,8 +2376,8 @@
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>139</v>
+      <c r="A10" s="20" t="s">
+        <v>494</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2400,12 +2398,10 @@
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2424,20 +2420,16 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4"/>
+      <c r="A12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2458,10 +2450,10 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>138</v>
@@ -2486,10 +2478,10 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>138</v>
@@ -2509,13 +2501,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2530,12 +2528,10 @@
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2554,19 +2550,16 @@
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
+      <c r="A17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2584,13 +2577,12 @@
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>138</v>
@@ -2615,10 +2607,10 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>138</v>
@@ -2643,10 +2635,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>138</v>
@@ -2666,13 +2658,19 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -2687,8 +2685,8 @@
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>495</v>
+      <c r="A22" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2709,13 +2707,11 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>496</v>
+      <c r="A23" s="20" t="s">
+        <v>495</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="22" t="s">
-        <v>497</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2733,11 +2729,13 @@
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>131</v>
+      <c r="A24" s="21" t="s">
+        <v>496</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="22" t="s">
+        <v>497</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2754,60 +2752,50 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
@@ -2815,18 +2803,20 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="4" t="s">
-        <v>142</v>
+      <c r="D27" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>527</v>
@@ -2841,24 +2831,26 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="1" t="s">
-        <v>194</v>
+      <c r="D28" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="J28" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2869,13 +2861,19 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2890,8 +2888,8 @@
       <c r="R29" s="4"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
-        <v>498</v>
+      <c r="A30" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="15"/>
@@ -2912,13 +2910,11 @@
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>499</v>
+      <c r="A31" s="20" t="s">
+        <v>498</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="1" t="s">
-        <v>500</v>
-      </c>
+      <c r="C31" s="15"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2936,10 +2932,13 @@
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>145</v>
+      <c r="A32" s="21" t="s">
+        <v>499</v>
       </c>
       <c r="B32" s="4"/>
+      <c r="C32" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2957,12 +2956,10 @@
       <c r="R32" s="4"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="A33" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2971,7 +2968,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="13"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2980,30 +2977,21 @@
       <c r="R33" s="4"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="A34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="L34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="13"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -3013,15 +3001,15 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>148</v>
+      <c r="C35" s="15"/>
+      <c r="D35" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>138</v>
@@ -3029,8 +3017,12 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="J35" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3040,18 +3032,18 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="D36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G36" s="4"/>
@@ -3074,10 +3066,10 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>138</v>
@@ -3102,10 +3094,10 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>138</v>
@@ -3130,10 +3122,10 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>138</v>
@@ -3158,10 +3150,10 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>138</v>
@@ -3180,18 +3172,18 @@
       <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="D41" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G41" s="4"/>
@@ -3209,13 +3201,19 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -3230,8 +3228,8 @@
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>501</v>
+      <c r="A43" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3252,13 +3250,11 @@
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
-        <v>502</v>
+      <c r="A44" s="20" t="s">
+        <v>501</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="1" t="s">
-        <v>503</v>
-      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3276,10 +3272,13 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>185</v>
+      <c r="A45" s="21" t="s">
+        <v>502</v>
       </c>
       <c r="B45" s="4"/>
+      <c r="C45" s="1" t="s">
+        <v>503</v>
+      </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -3297,12 +3296,10 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="A46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3311,7 +3308,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="13"/>
+      <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -3320,20 +3317,15 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="A47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -3348,30 +3340,26 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>141</v>
+      <c r="A48" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="15"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="L48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="13"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -3381,15 +3369,15 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="15"/>
-      <c r="D49" s="4" t="s">
-        <v>159</v>
+      <c r="D49" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>138</v>
@@ -3397,8 +3385,12 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="J49" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -3412,12 +3404,12 @@
         <v>24</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>138</v>
@@ -3442,10 +3434,10 @@
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>138</v>
@@ -3470,10 +3462,10 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>138</v>
@@ -3493,13 +3485,19 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -3514,15 +3512,11 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="A54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -3531,7 +3525,7 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="13"/>
+      <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -3540,26 +3534,24 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="A55" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
+      <c r="L55" s="13"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -3574,10 +3566,10 @@
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>138</v>
@@ -3602,10 +3594,10 @@
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>138</v>
@@ -3625,13 +3617,19 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3646,8 +3644,8 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
-        <v>504</v>
+      <c r="A59" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3668,8 +3666,8 @@
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>132</v>
+      <c r="A60" s="20" t="s">
+        <v>504</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3690,12 +3688,11 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="A61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -3704,7 +3701,7 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="13"/>
+      <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -3713,26 +3710,21 @@
       <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="A62" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="L62" s="13"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -3747,10 +3739,10 @@
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>138</v>
@@ -3769,18 +3761,18 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="D64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G64" s="4"/>
@@ -3797,18 +3789,18 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="D65" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G65" s="4"/>
@@ -3826,13 +3818,19 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3847,8 +3845,8 @@
       <c r="R66" s="4"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
-        <v>505</v>
+      <c r="A67" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -3869,8 +3867,8 @@
       <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>180</v>
+      <c r="A68" s="20" t="s">
+        <v>505</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3891,12 +3889,11 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>169</v>
-      </c>
+      <c r="A69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -3905,7 +3902,7 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="13"/>
+      <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -3914,26 +3911,21 @@
       <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="A70" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+      <c r="L70" s="13"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -3948,10 +3940,10 @@
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>138</v>
@@ -3976,10 +3968,10 @@
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>138</v>
@@ -4004,10 +3996,10 @@
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>138</v>
@@ -4026,20 +4018,18 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G74" s="4"/>
@@ -4056,14 +4046,22 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="A75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -4078,8 +4076,8 @@
       <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="20" t="s">
-        <v>506</v>
+      <c r="A76" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -4100,22 +4098,16 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="A77" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="4" t="s">
-        <v>513</v>
-      </c>
+      <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -4128,16 +4120,12 @@
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="A78" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="1" t="s">
-        <v>507</v>
-      </c>
+      <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -4154,20 +4142,22 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B79" s="4"/>
+      <c r="A79" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+      <c r="H79" s="4" t="s">
+        <v>513</v>
+      </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -4180,17 +4170,17 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B80" s="4"/>
+      <c r="A80" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C80" s="4"/>
       <c r="D80" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>216</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -4207,14 +4197,16 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E81" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -4228,9 +4220,6 @@
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
-      <c r="S81" s="3" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
@@ -4239,10 +4228,10 @@
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -4260,12 +4249,12 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="4"/>
@@ -4287,12 +4276,16 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -4308,19 +4301,56 @@
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
+      <c r="A85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="12"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="16"/>
@@ -4333,6 +4363,18 @@
       <c r="D95" s="16"/>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4374,8 +4416,8 @@
   <dimension ref="A1:XFD112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/form-files/adaptiveIMCI_clinician/clinician.xlsx
+++ b/form-files/adaptiveIMCI_clinician/clinician.xlsx
@@ -1624,7 +1624,7 @@
     <t>goto menu</t>
   </si>
   <si>
-    <t>get_patient_name != null</t>
+    <t>data('patient_name') != null</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2103,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4416,8 +4416,8 @@
   <dimension ref="A1:XFD112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/form-files/adaptiveIMCI_clinician/clinician.xlsx
+++ b/form-files/adaptiveIMCI_clinician/clinician.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20736" windowHeight="9456"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20736" windowHeight="9456" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="535">
   <si>
     <t>type</t>
   </si>
@@ -1626,6 +1626,9 @@
   <si>
     <t>data('patient_name') != null</t>
   </si>
+  <si>
+    <t>0.9-clinician</t>
+  </si>
 </sst>
 </file>
 
@@ -2101,7 +2104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
@@ -55360,9 +55363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -55403,8 +55406,8 @@
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13">
-        <v>0.9</v>
+      <c r="B4" s="13" t="s">
+        <v>534</v>
       </c>
       <c r="C4" s="6"/>
     </row>
